--- a/Reconciled/beta prepared_reconciled_2_alt labels_withsuffix_"unmatched".xlsx
+++ b/Reconciled/beta prepared_reconciled_2_alt labels_withsuffix_"unmatched".xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/Reconciled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48B8FD25-6FF9-9D4B-819C-56CD6A03D79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBA9397-4BDE-9D46-BFF7-8F611122AB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="500" windowWidth="27540" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="880" windowWidth="22980" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beta prepared altlabels unmatch" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="910">
   <si>
     <t>Level</t>
   </si>
@@ -2696,85 +2696,45 @@
     <t>United States Environmental Protection Agency</t>
   </si>
   <si>
-    <t>specific pathogen free animals</t>
-  </si>
-  <si>
-    <t>germ free animals</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/9584</t>
   </si>
   <si>
     <t>https://lod.nal.usda.gov/nalt/42856</t>
   </si>
   <si>
-    <t>maca</t>
-  </si>
-  <si>
     <t>ERROR</t>
   </si>
   <si>
-    <t>mole-rats</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/190028</t>
   </si>
   <si>
     <t>DUPLICATE - should have been removed pre reconciliation</t>
   </si>
   <si>
-    <t xml:space="preserve">
-vicuñas</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/49017</t>
   </si>
   <si>
-    <t>human animal relations</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/9260</t>
   </si>
   <si>
     <t>https://lod.nal.usda.gov/nalt/9141</t>
   </si>
   <si>
-    <t>human wildlife relations</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/146566</t>
   </si>
   <si>
-    <t>positron emission tomography</t>
-  </si>
-  <si>
-    <t>lethal concentration-50</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/68545</t>
   </si>
   <si>
-    <t>quantitative structure activity relationships</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/60701</t>
   </si>
   <si>
-    <t>lethal dose-50</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/49401</t>
   </si>
   <si>
     <t>Beta prepared label</t>
   </si>
   <si>
-    <t>Alt Label from the Nalt</t>
-  </si>
-  <si>
-    <t>no-observed-adverse-effect level</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/54939</t>
   </si>
   <si>
@@ -2784,10 +2744,16 @@
     <t xml:space="preserve">DUPLICATE </t>
   </si>
   <si>
-    <t>U. S. Department of the Interior</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/237645</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>matched to preflabel already</t>
+  </si>
+  <si>
+    <t>maca (nalt alt label)</t>
   </si>
 </sst>
 </file>
@@ -3158,7 +3124,7 @@
   <dimension ref="A1:N904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3174,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="C1" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3215,7 +3181,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3224,7 +3190,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -3235,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -3244,7 +3210,7 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -3255,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -3264,7 +3230,7 @@
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -3275,7 +3241,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>106</v>
@@ -3284,7 +3250,7 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="L5" t="s">
         <v>106</v>
@@ -3295,7 +3261,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>159</v>
@@ -3304,7 +3270,7 @@
         <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="K6" t="s">
         <v>159</v>
@@ -3315,7 +3281,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>184</v>
@@ -3324,7 +3290,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="M7" t="s">
         <v>184</v>
@@ -3335,7 +3301,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>247</v>
@@ -3344,7 +3310,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="I8" t="s">
         <v>247</v>
@@ -3355,7 +3321,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>248</v>
@@ -3364,7 +3330,7 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J9" t="s">
         <v>248</v>
@@ -3375,7 +3341,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>383</v>
@@ -3384,7 +3350,7 @@
         <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="K10" t="s">
         <v>383</v>
@@ -3395,7 +3361,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>397</v>
@@ -3404,7 +3370,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="I11" t="s">
         <v>397</v>
@@ -3415,7 +3381,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>531</v>
@@ -3424,7 +3390,7 @@
         <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J12" t="s">
         <v>531</v>
@@ -3435,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>561</v>
@@ -3444,7 +3410,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="K13" t="s">
         <v>561</v>
@@ -3455,7 +3421,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>565</v>
@@ -3464,7 +3430,7 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="J14" t="s">
         <v>565</v>
@@ -3475,7 +3441,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>397</v>
@@ -3484,7 +3450,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="J15" t="s">
         <v>397</v>
@@ -3495,7 +3461,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>565</v>
@@ -3504,7 +3470,7 @@
         <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="J16" t="s">
         <v>565</v>
@@ -3515,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>888</v>
@@ -3524,7 +3490,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="J17" t="s">
         <v>888</v>
